--- a/python/results/Rahil_Dose_loadings_and_variance.xlsx
+++ b/python/results/Rahil_Dose_loadings_and_variance.xlsx
@@ -492,34 +492,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2896226724715691</v>
+        <v>0.3094796612385317</v>
       </c>
       <c r="C2" t="n">
-        <v>0.231571993945788</v>
+        <v>0.2132806233326746</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2066614429028373</v>
+        <v>0.1802486417039714</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09324546956383307</v>
+        <v>0.1335706398486311</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06079571486455852</v>
+        <v>0.08822988816934139</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0509083026621729</v>
+        <v>0.03554774114864925</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04088889835617417</v>
+        <v>0.01771985843683903</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0192843105711823</v>
+        <v>0.01288586093133691</v>
       </c>
       <c r="J2" t="n">
-        <v>0.004424994021531656</v>
+        <v>0.007807162094270939</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002596200640353005</v>
+        <v>0.001229923095753718</v>
       </c>
     </row>
     <row r="3">
@@ -529,34 +529,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.3636210634195651</v>
+        <v>0.4135023519998982</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4242265974188761</v>
+        <v>0.2693494789612023</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1286907082679574</v>
+        <v>0.02939355973206982</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4965032019958086</v>
+        <v>0.1891141082574051</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2155491032864454</v>
+        <v>-0.08643496533596384</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3823901429581895</v>
+        <v>0.5010082956476487</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.2261106925591853</v>
+        <v>-0.2506925415259741</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.08776940993342089</v>
+        <v>-0.3028493117468745</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2137034441722114</v>
+        <v>-0.4897986647784726</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3571448925485741</v>
+        <v>0.2586330068198811</v>
       </c>
     </row>
     <row r="4">
@@ -566,34 +566,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05550478047941992</v>
+        <v>-0.2937499203643493</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.3462508911041912</v>
+        <v>0.5792458112463534</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3960920346359385</v>
+        <v>-0.1454791666361235</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1373438609551085</v>
+        <v>0.428823461819095</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.5060670255766306</v>
+        <v>0.2818907875834366</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07435278048063228</v>
+        <v>-0.1684416145696908</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.06228712194917022</v>
+        <v>-0.3175405040338432</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5226346861479634</v>
+        <v>0.2502356350151613</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4024621325366566</v>
+        <v>-0.138637334236153</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02535082871557641</v>
+        <v>-0.2874480410212776</v>
       </c>
     </row>
     <row r="5">
@@ -603,34 +603,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4228974253226311</v>
+        <v>0.01142459835373083</v>
       </c>
       <c r="C5" t="n">
-        <v>0.186718932468279</v>
+        <v>0.02424125157145521</v>
       </c>
       <c r="D5" t="n">
-        <v>0.339859430404079</v>
+        <v>0.6808962469176404</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2289255085848962</v>
+        <v>0.4113525539634901</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2031919288348852</v>
+        <v>-0.4045657737769978</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4426569193107078</v>
+        <v>-0.1152798857735153</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.4175250808324519</v>
+        <v>-0.214025616143764</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.005482588929964555</v>
+        <v>0.136009810975499</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.4395202444278882</v>
+        <v>0.3003415978719153</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1166836821205044</v>
+        <v>0.1870229711040599</v>
       </c>
     </row>
     <row r="6">
@@ -640,34 +640,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.304404821825027</v>
+        <v>-0.1124142072870832</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1064203680705223</v>
+        <v>0.1012856565817402</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2529029224803754</v>
+        <v>0.1279361529179477</v>
       </c>
       <c r="E6" t="n">
-        <v>0.007849948045376705</v>
+        <v>0.3420094635964282</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02873671866057633</v>
+        <v>0.4571975024607334</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1219704016108354</v>
+        <v>-0.2014483664928232</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4732640267865345</v>
+        <v>0.5122144587682111</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2551325483613935</v>
+        <v>-0.3424579962443631</v>
       </c>
       <c r="J6" t="n">
-        <v>0.02266659505406098</v>
+        <v>0.007894782989733104</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7257431302758323</v>
+        <v>0.4630892680440022</v>
       </c>
     </row>
     <row r="7">
@@ -677,34 +677,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1246678928097382</v>
+        <v>0.4464223032610281</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.2531566394785497</v>
+        <v>-0.1310232191509112</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5769471950626511</v>
+        <v>0.01991349698342411</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1835573172409838</v>
+        <v>-0.09725643877952223</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.08381677845953153</v>
+        <v>0.445976282420652</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2144575142443552</v>
+        <v>-0.1127008239059196</v>
       </c>
       <c r="H7" t="n">
-        <v>0.550139586480773</v>
+        <v>-0.1880101588158485</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4232069260847283</v>
+        <v>0.6185046302627264</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.1375267621580929</v>
+        <v>-0.01128629627030753</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01094179193403553</v>
+        <v>0.3795591953826886</v>
       </c>
     </row>
     <row r="8">
@@ -714,34 +714,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.3359795937455719</v>
+        <v>-0.3472083862408971</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1826894453832957</v>
+        <v>0.002719107207940996</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3307742061500219</v>
+        <v>-0.3710963742673994</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2159874804661377</v>
+        <v>-0.1502553544839652</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4839433677093059</v>
+        <v>-0.1577922699864343</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1224866243942803</v>
+        <v>-0.2012064568422778</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2382441792020161</v>
+        <v>-0.4927319366868724</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5640274822322582</v>
+        <v>-0.1956793386727499</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.2430844558436269</v>
+        <v>0.1373967230408227</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.1204101878779042</v>
+        <v>0.594822905724905</v>
       </c>
     </row>
     <row r="9">
@@ -751,34 +751,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.03123490693377738</v>
+        <v>-0.1871178173613362</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.2642853956503401</v>
+        <v>-0.2606135202568121</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2443924062542014</v>
+        <v>0.472035570490082</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.4165743675395764</v>
+        <v>-0.2269649269698024</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3401551281783127</v>
+        <v>0.5036250354925363</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3977326578544411</v>
+        <v>0.0234538194780225</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.3801378420451604</v>
+        <v>-0.4495211738287502</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03267239188910243</v>
+        <v>-0.347477002719076</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.2437695756558813</v>
+        <v>-0.08432902300917697</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4658573921246152</v>
+        <v>-0.1965392131848445</v>
       </c>
     </row>
     <row r="10">
@@ -788,34 +788,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6669979176337062</v>
+        <v>-0.5570571319792134</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2928260785629853</v>
+        <v>0.09748135917628525</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1226669476489486</v>
+        <v>0.1841298621867662</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03087849222868994</v>
+        <v>-0.18447931703447</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2122096570085201</v>
+        <v>0.05046929335886233</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.4469164256210103</v>
+        <v>0.6218506448079465</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.04347295074779611</v>
+        <v>0.1687692343920082</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2260306153087402</v>
+        <v>0.3698352029755986</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2990840309517152</v>
+        <v>-0.03958255832354046</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.2572309860154243</v>
+        <v>0.2370127148085294</v>
       </c>
     </row>
     <row r="11">
@@ -825,34 +825,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1335362984677343</v>
+        <v>0.2468821673386878</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.6218768424216199</v>
+        <v>0.4035216784750664</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2969357046158058</v>
+        <v>-0.0594435255253918</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6414031119770067</v>
+        <v>-0.1438866238787113</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1062988313404453</v>
+        <v>0.2073844589371474</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1512486568052342</v>
+        <v>0.3069524017999219</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.1511153093869746</v>
+        <v>-0.05937333426337371</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1738726581498042</v>
+        <v>-0.177310091253186</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.09272203037258611</v>
+        <v>0.7594322372565652</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.005289091834338407</v>
+        <v>-0.05525470248807568</v>
       </c>
     </row>
     <row r="12">
@@ -862,34 +862,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03280637481241995</v>
+        <v>-0.06193744417756811</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1190145059316385</v>
+        <v>-0.5689046326076309</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2045976509371548</v>
+        <v>-0.3156271334833906</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1261871889011073</v>
+        <v>0.5965570822271639</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4919935608869608</v>
+        <v>0.131820614358964</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4423017094132466</v>
+        <v>0.3634468553940293</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.1343274741289836</v>
+        <v>-0.1262558811141144</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2727759355225062</v>
+        <v>0.00962699283382451</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6026502705093683</v>
+        <v>0.214915863795393</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1834379671239614</v>
+        <v>-0.07292520947087394</v>
       </c>
     </row>
   </sheetData>
